--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jbcong\fengfu-pubbase\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FF\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE5DAF2-9827-46E8-81C4-27D789A56A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D00C5F-E688-4E97-9515-23917FE51ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
@@ -62,6 +62,22 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6A323C60-9871-4298-9018-678F2F4B8E91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ASUS:
+jx:each(items="rows.left" var="row" lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -561,7 +577,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FF\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D00C5F-E688-4E97-9515-23917FE51ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA6BB3-2088-4390-98F4-47614842E3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
@@ -39,7 +39,23 @@
     <author>李涛</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0FE0F55F-8797-4459-913B-92A2DBD022C1}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A5903CDE-4600-4AEC-9C59-A416263106E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="K17")
+jx:each(items="rows", var="page", lastCell="K17", multisheet="sheetNames")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0FE0F55F-8797-4459-913B-92A2DBD022C1}">
       <text>
         <r>
           <rPr>
@@ -65,23 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6A323C60-9871-4298-9018-678F2F4B8E91}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:
-jx:each(items="rows.left" var="row" lastCell="E3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{D9223E67-DDFA-4C9E-845D-B7314F9F603D}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D9223E67-DDFA-4C9E-845D-B7314F9F603D}">
       <text>
         <r>
           <rPr>
@@ -92,11 +92,12 @@
             <charset val="134"/>
           </rPr>
           <t>ASUS:
-jx:each(items="rows.left" var="row" lastCell="E3")</t>
+jx:each(items="rows" var="rowa")
+jx:each(items="rowa" var="row")</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{962A3C3C-3C29-4793-B131-435F67E51C86}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{962A3C3C-3C29-4793-B131-435F67E51C86}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
             <charset val="134"/>
           </rPr>
           <t>ASUS:
-jx:each(items="rows.right" var="row2" lastCell="K3")</t>
+jx:each(items="rightData" var="row2" lastCell="K3")</t>
         </r>
       </text>
     </comment>
@@ -248,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672506B-89E8-4210-B895-990B6FF4142F}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,52 +597,33 @@
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -647,34 +632,34 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -682,8 +667,41 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FF\fengfu-pubbase\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA6BB3-2088-4390-98F4-47614842E3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6BCFD4-B5B0-4FD8-A3EC-6EE171B6D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,34 +50,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K17")
-jx:each(items="rows", var="page", lastCell="K17", multisheet="sheetNames")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0FE0F55F-8797-4459-913B-92A2DBD022C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="K4")</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>jx:area(lastCell="K4")
+jx:each(items="rows", var="page", lastCell="K4", multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
@@ -91,9 +65,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>ASUS:
-jx:each(items="rows" var="rowa")
-jx:each(items="rowa" var="row")</t>
+          <t>jx:each(items="page.leftDatas" var="row" lastCell="E4")</t>
         </r>
       </text>
     </comment>
@@ -107,8 +79,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>ASUS:
-jx:each(items="rightData" var="row2" lastCell="K3")</t>
+          <t>jx:each(items="page.rightDatas" var="row" lastCell="K4")</t>
         </r>
       </text>
     </comment>
@@ -117,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,26 +131,6 @@
   </si>
   <si>
     <t>${row.iQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.SequenceNumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cBarcode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cInvCode1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.dPlanDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.iQty}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,24 +531,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672506B-89E8-4210-B895-990B6FF4142F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -610,7 +561,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +581,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -667,7 +618,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -684,19 +635,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6BCFD4-B5B0-4FD8-A3EC-6EE171B6D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE24535-8321-4E92-9863-E2D7FBE5BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,8 +88,88 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>李涛</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CC682D75-BD6E-45C2-8076-0688EFC6A466}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="rows2", var="page", lastCell="G10", multisheet="sheetNames2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{96EFEF16-40AE-49C3-AC5E-9CAB7C063922}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.barcodeRecords" var="row2" lastCell="G10")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{72F98B8C-BCCA-475E-A5D8-DEDF1CC4AD0E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G5" src="row2.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7A8E520F-E66D-4713-AA9E-4E55654A8962}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G9" src="row2.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +212,74 @@
   </si>
   <si>
     <t>${row.iQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购现品票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cInvCode1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cInvName1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cInvStd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.dPlanDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cAddress}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.dOrderDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cVenName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.iQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cOrderNo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +287,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +329,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -194,23 +355,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,56 +894,56 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="10" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,7 +980,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -628,7 +990,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -659,4 +1021,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE24535-8321-4E92-9863-E2D7FBE5BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFFAF5-4FAF-4A2F-97BF-8D0243CBE2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
@@ -105,7 +105,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="rows2", var="page", lastCell="G10", multisheet="sheetNames2")</t>
+          <t>jx:area(lastCell="G10")
+jx:each(items="rows2", var="page", lastCell="G10", multisheet="sheetNames2")</t>
         </r>
       </text>
     </comment>
@@ -132,6 +133,21 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3308073E-B6A3-490D-96FA-1E2EBB890703}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.barcodeRecords" var="row2" lastCell="G10")</t>
         </r>
       </text>
     </comment>
@@ -512,6 +528,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,21 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,27 +589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,7 +910,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1044,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G6"/>
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1041,141 +1057,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:C9"/>
@@ -1183,6 +1193,12 @@
     <mergeCell ref="F4:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFFAF5-4FAF-4A2F-97BF-8D0243CBE2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B344028-F102-4B42-8D32-85E61D59D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -136,21 +136,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3308073E-B6A3-490D-96FA-1E2EBB890703}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="page.barcodeRecords" var="row2" lastCell="G10")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F4" authorId="0" shapeId="0" xr:uid="{72F98B8C-BCCA-475E-A5D8-DEDF1CC4AD0E}">
       <text>
         <r>
@@ -176,7 +161,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(lastCell="G9" src="row2.img") imageType="jpeg"</t>
+          <t>jx:image(lastCell="G10" src="row2.img") imageType="jpeg"</t>
         </r>
       </text>
     </comment>
@@ -185,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,11 +276,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${row2.iQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${row2.cOrderNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.index}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row2.cBarcode}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,42 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,6 +526,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,6 +557,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672506B-89E8-4210-B895-990B6FF4142F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1043,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,146 +1046,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="F4:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:G7"/>
   </mergeCells>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B344028-F102-4B42-8D32-85E61D59D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F730DD-934B-4A95-A17F-B6865A004952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="page.barcodeRecords" var="row2" lastCell="G10")</t>
+          <t>jx:each(items="page.barcodeRecords" var="row" lastCell="G10")</t>
         </r>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(lastCell="G5" src="row2.img2") imageType="jpeg"</t>
+          <t>jx:image(lastCell="G5" src="row.img2") imageType="jpeg"</t>
         </r>
       </text>
     </comment>
@@ -161,7 +161,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(lastCell="G10" src="row2.img") imageType="jpeg"</t>
+          <t>jx:image(lastCell="G10" src="row.img") imageType="jpeg"</t>
         </r>
       </text>
     </comment>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,43 +248,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${row2.cInvCode1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cInvName1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cInvStd}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.dPlanDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cAddress}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.dOrderDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cVenName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cOrderNo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.index}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row2.cBarcode}</t>
+    <t>${row.cInvName1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.cInvStd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.cAddress}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.cVenName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.index}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.dOrderDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.cOrderNo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,6 +505,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,58 +562,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,20 +890,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -928,7 +916,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -948,7 +936,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -985,7 +973,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,156 +1021,150 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13"/>
+      <c r="B7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11"/>
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:C9"/>
@@ -1191,6 +1173,12 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F730DD-934B-4A95-A17F-B6865A004952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C65AD9-2925-4668-A851-F0BD33AD7B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <author>李涛</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CC682D75-BD6E-45C2-8076-0688EFC6A466}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{22BFFD4A-027F-412D-8749-062A33CC6540}">
       <text>
         <r>
           <rPr>
@@ -105,8 +105,52 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G10")
-jx:each(items="rows2", var="page", lastCell="G10", multisheet="sheetNames2")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S56</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")
+jx:each(items="rows2", var="page", lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S56</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>", multisheet="sheetNames2")</t>
         </r>
       </text>
     </comment>
@@ -121,7 +165,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="page.barcodeRecords" var="row" lastCell="G10")</t>
+          <t>jx:each(items="page.list1" var="row" lastCell="I14")</t>
         </r>
         <r>
           <rPr>
@@ -136,21 +180,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{72F98B8C-BCCA-475E-A5D8-DEDF1CC4AD0E}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{5563DD31-F399-4D4A-9974-9F4FB56D6DF9}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:image(lastCell="G5" src="row.img2") imageType="jpeg"</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list2" var="row" lastCell="S14")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{7A8E520F-E66D-4713-AA9E-4E55654A8962}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{1011C6CF-7763-4D26-82F5-C1AFEFF06584}">
       <text>
         <r>
           <rPr>
@@ -161,7 +217,399 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(lastCell="G10" src="row.img") imageType="jpeg"</t>
+          <t>jx:image(lastCell="H7" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{8BAB30A9-280B-4B0E-9FB6-95A7907B13D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R7" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D71B6B9F-05C0-4977-8F5E-2D4379C3CF9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G13" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{F95EB658-3D4C-4E83-BA36-FC5766EF27A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q13" src="row.img") imageType="jpeg"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{F6A86AF6-CD26-4735-AEC5-742CEC7EE055}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list3" var="row" lastCell="I28")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{D4DA751C-C1F0-438F-BFAE-1A74B81DCB55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list4" var="row" lastCell="S28")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{A42536CF-880C-4539-BE3C-FD774559AFF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H21" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0" shapeId="0" xr:uid="{639AF4B5-8905-4568-93B2-503EB40C83E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R21" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{9999057A-F818-4D8F-AD3C-D6923525271C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G27" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{3D031C06-1D20-457A-81E3-4EE1779C4458}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q27" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{0CE068E5-FDFA-4F74-98D0-52A8E5F1E659}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list5" var="row" lastCell="I42")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{1059671E-CA10-4AFD-A947-5FCEDF5C15AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list6" var="row" lastCell="S42")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{F1A36761-8ACB-4AA2-9031-E80A93971CA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H35" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{DC380B35-87F0-413E-8D98-8A8BB0853EF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R35" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{4BEB430E-B1FA-4316-9208-F9CAE906930C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G41" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L41" authorId="0" shapeId="0" xr:uid="{D35D4D2D-E8C6-4D97-99CF-9F0FE3791D25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q41" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{A7A223FB-A4C7-483E-BEE9-C093A4212255}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list7" var="row" lastCell="I56")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K44" authorId="0" shapeId="0" xr:uid="{19B50BB9-620E-46B5-87B3-4CEE5FA631EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list8" var="row" lastCell="S56")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{D106C8C4-2CA9-448A-912F-23C9935E83E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H49" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q47" authorId="0" shapeId="0" xr:uid="{706B518F-65B8-40A3-AFB3-C92C17D49571}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R49" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{6E55801D-1813-4FB8-ACF5-552F8E8E4E44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G55" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L55" authorId="0" shapeId="0" xr:uid="{752640E3-B878-40B8-8B75-3F668B3B0CB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q55" src="row.img") imageType="jpeg"</t>
         </r>
       </text>
     </comment>
@@ -170,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,7 +788,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -480,13 +928,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,18 +984,139 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,55 +1124,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,57 +1450,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672506B-89E8-4210-B895-990B6FF4142F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="10" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,7 +1537,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,170 +1582,1541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="2.21875" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="19" max="19" width="2.21875" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:19" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="K12" s="10"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="47"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="47"/>
+    </row>
+    <row r="14" spans="1:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="K18" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="K25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="38"/>
+    </row>
+    <row r="27" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="47"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="47"/>
+    </row>
+    <row r="28" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
+    </row>
+    <row r="29" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="K30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+      <c r="K32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="11"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="11"/>
+      <c r="K34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="22"/>
+      <c r="K38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="K39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="26"/>
+      <c r="N39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="38"/>
+    </row>
+    <row r="41" spans="1:19" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="47"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="47"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="K44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="32"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="K46" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="1:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="11"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="11"/>
+      <c r="K48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="11"/>
+      <c r="K49" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="22"/>
+      <c r="K51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="26"/>
+      <c r="N51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
+      <c r="K52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="22"/>
+      <c r="K53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="26"/>
+      <c r="N53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="38"/>
+    </row>
+    <row r="55" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="47"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="47"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A10:G10"/>
+  <mergeCells count="134">
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="K44:S45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="K16:S17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:O19"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:O22"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="Q5:R7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="K2:S3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="K30:S31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:O33"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="258" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C65AD9-2925-4668-A851-F0BD33AD7B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E820439-4DD8-4E08-B8BE-1DC91C352022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="25">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,10 +709,6 @@
   </si>
   <si>
     <t>${row.cVenName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.index}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -971,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,12 +981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1021,108 +1011,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1131,6 +1115,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,32 +1455,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1584,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1611,213 +1598,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="K2" s="30" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="K4" s="39" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" s="50" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="11"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="48" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="11"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="20"/>
       <c r="K9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1828,1206 +1815,1212 @@
       <c r="N9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="22"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="20"/>
       <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="22"/>
+      <c r="O10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="26"/>
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="20"/>
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="22"/>
+      <c r="O11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="K12" s="10"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="47"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="K12" s="8"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="46"/>
     </row>
     <row r="13" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="47"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="47"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
     </row>
     <row r="14" spans="1:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="K16" s="30" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="39" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="11"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="11"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="11"/>
-      <c r="K20" s="15" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="9"/>
+      <c r="K20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="11"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="48" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="11"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="20"/>
       <c r="K23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="26"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="22"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
+      <c r="E24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="22"/>
+      <c r="O24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="26"/>
+      <c r="B25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
+      <c r="E25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="20"/>
       <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="26"/>
+      <c r="L25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="18"/>
       <c r="N25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="22"/>
+      <c r="O25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="38"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="27" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="47"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="46"/>
     </row>
     <row r="28" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="29"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="K30" s="30" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="K30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="32"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="35"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="K32" s="39" t="s">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="K32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="9"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="7"/>
     </row>
     <row r="33" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="11"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="11"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="9"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="11"/>
-      <c r="K34" s="15" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="9"/>
+      <c r="K34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="11"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="11"/>
-      <c r="K35" s="48" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="9"/>
+      <c r="K35" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="11"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="14"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="22"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="20"/>
       <c r="K37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="26"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="21" t="s">
+      <c r="O37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="22"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="22"/>
+      <c r="E38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="20"/>
       <c r="K38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="22"/>
+      <c r="O38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="20"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="26"/>
+      <c r="B39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="22"/>
+      <c r="E39" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="20"/>
       <c r="K39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="26"/>
+      <c r="L39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="18"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="22"/>
+      <c r="O39" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="44"/>
     </row>
     <row r="41" spans="1:19" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="47"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="29"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="K44" s="30" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="K44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="32"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="35"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="29"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="K46" s="39" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="K46" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="41" t="s">
+      <c r="L46" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="9"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="7"/>
     </row>
     <row r="47" spans="1:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="11"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="11"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="9"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="9"/>
     </row>
     <row r="48" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="11"/>
-      <c r="K48" s="15" t="s">
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="9"/>
+      <c r="K48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="11"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="11"/>
-      <c r="K49" s="48" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="9"/>
+      <c r="K49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="49" t="s">
+      <c r="L49" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="11"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="9"/>
     </row>
     <row r="50" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="14"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="26"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="22"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="20"/>
       <c r="K51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="L51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M51" s="26"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="22"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="20"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="22"/>
+      <c r="E52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="20"/>
       <c r="K52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="21" t="s">
+      <c r="L52" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="22"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O52" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="22"/>
+      <c r="O52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="20"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="26"/>
+      <c r="B53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="22"/>
+      <c r="E53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="20"/>
       <c r="K53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="26"/>
+      <c r="L53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="18"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O53" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="22"/>
+      <c r="O53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="20"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="38"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="38"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="44"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="44"/>
     </row>
     <row r="55" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="47"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="47"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="46"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="29"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="K44:S45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:O47"/>
-    <mergeCell ref="Q47:R49"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="O52:S52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="K54:S54"/>
-    <mergeCell ref="L55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="K56:S56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="A44:I45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:E47"/>
-    <mergeCell ref="G47:H49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:E50"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="A30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="G33:H35"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E36"/>
+  <mergeCells count="137">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="Q5:R7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="K2:S3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="G5:H7"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:I17"/>
@@ -3052,67 +3045,64 @@
     <mergeCell ref="K14:S14"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="Q5:R7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:O8"/>
-    <mergeCell ref="K2:S3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E36"/>
     <mergeCell ref="K30:S31"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:O33"/>
-    <mergeCell ref="Q33:R35"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:I25"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A28:I28"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="K44:S45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E820439-4DD8-4E08-B8BE-1DC91C352022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAFC2F-F05C-42C1-B162-B61E12C6B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -725,9 +725,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,14 +738,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -767,8 +759,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -967,157 +999,172 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,50 +1484,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672506B-89E8-4210-B895-990B6FF4142F}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" customWidth="1"/>
+    <col min="6" max="6" width="0.77734375" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:16" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1488,34 +1538,35 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="1"/>
@@ -1525,34 +1576,35 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1563,7 +1615,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="258" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1571,1456 +1624,1477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="2.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="2.21875" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" customWidth="1"/>
-    <col min="19" max="19" width="2.21875" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="1.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6" style="3" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="1" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="0.21875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="0.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13" style="3" customWidth="1"/>
+    <col min="22" max="22" width="2.44140625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:19" ht="1.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+    </row>
+    <row r="2" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="K2" s="24" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:19" ht="7.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="9"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" s="50" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="5" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="39" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="2" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="20"/>
-      <c r="K10" s="2" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="20"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="20"/>
-      <c r="K11" s="2" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="20"/>
-    </row>
-    <row r="12" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="K12" s="8"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-    </row>
-    <row r="14" spans="1:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="39"/>
+    </row>
+    <row r="13" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="1:19" ht="2.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="K16" s="24" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+    </row>
+    <row r="17" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+    </row>
+    <row r="18" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="19" spans="1:19" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="13" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="39" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" ht="1.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="20"/>
-      <c r="K23" s="2" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="K23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="26"/>
+      <c r="N23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="20"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="20"/>
-      <c r="K24" s="2" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="K24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="2" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="20"/>
-    </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="20"/>
-      <c r="K25" s="2" t="s">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="K25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="26"/>
+      <c r="N25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="20"/>
-    </row>
-    <row r="26" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-    </row>
-    <row r="27" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-    </row>
-    <row r="28" spans="1:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
-    </row>
-    <row r="29" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="38"/>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="39"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="39"/>
+    </row>
+    <row r="28" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
+    </row>
+    <row r="29" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="K30" s="24" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="K30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="29"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="34"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="9"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="9"/>
-    </row>
-    <row r="34" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="9"/>
-      <c r="K34" s="13" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="9"/>
-      <c r="K35" s="39" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="15"/>
+    </row>
+    <row r="37" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="20"/>
-      <c r="K37" s="2" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="2" t="s">
+      <c r="M37" s="26"/>
+      <c r="N37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="20"/>
-    </row>
-    <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="20"/>
-      <c r="K38" s="2" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="22"/>
+      <c r="K38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="2" t="s">
+      <c r="M38" s="22"/>
+      <c r="N38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="20"/>
-    </row>
-    <row r="39" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="20"/>
-      <c r="K39" s="2" t="s">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="K39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="2" t="s">
+      <c r="M39" s="26"/>
+      <c r="N39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="20"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="44"/>
-    </row>
-    <row r="41" spans="1:19" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="46"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="23"/>
-    </row>
-    <row r="43" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:19" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="38"/>
+    </row>
+    <row r="41" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="39"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="39"/>
+    </row>
+    <row r="42" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
+    </row>
+    <row r="43" spans="1:19" ht="1.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="K44" s="24" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="K44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="26"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="29"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="32"/>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
-      <c r="K46" s="30" t="s">
+      <c r="K46" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="32" t="s">
+      <c r="L46" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="34"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="9"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="10"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="10"/>
+    </row>
+    <row r="48" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="9"/>
-      <c r="K48" s="13" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="10"/>
+      <c r="K48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="10"/>
+    </row>
+    <row r="49" spans="1:19" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="9"/>
-      <c r="K49" s="39" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="10"/>
+      <c r="K49" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="40" t="s">
+      <c r="L49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="9"/>
-    </row>
-    <row r="50" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="12"/>
-    </row>
-    <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="10"/>
+    </row>
+    <row r="50" spans="1:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="15"/>
+    </row>
+    <row r="51" spans="1:19" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="20"/>
-      <c r="K51" s="2" t="s">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="22"/>
+      <c r="K51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="26"/>
+      <c r="N51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O51" s="19" t="s">
+      <c r="O51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="20"/>
-    </row>
-    <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="20"/>
-      <c r="K52" s="2" t="s">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="22"/>
+      <c r="K52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="2" t="s">
+      <c r="M52" s="22"/>
+      <c r="N52" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="O52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="20"/>
-    </row>
-    <row r="53" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="20"/>
-      <c r="K53" s="2" t="s">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="22"/>
+      <c r="K53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L53" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="2" t="s">
+      <c r="M53" s="26"/>
+      <c r="N53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="O53" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="20"/>
-    </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="44"/>
-    </row>
-    <row r="55" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="46"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="38"/>
+    </row>
+    <row r="55" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="39"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="39"/>
+    </row>
+    <row r="56" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="Q33:R35"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="Q5:R7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:O8"/>
-    <mergeCell ref="K2:S3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="K44:S45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="K30:S31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:O33"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:I17"/>
@@ -3045,64 +3119,61 @@
     <mergeCell ref="K14:S14"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="A30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="G33:H35"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E36"/>
-    <mergeCell ref="K30:S31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:O33"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="A44:I45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:E47"/>
-    <mergeCell ref="G47:H49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:E50"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="K44:S45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:O47"/>
-    <mergeCell ref="Q47:R49"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="O52:S52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="O53:S53"/>
-    <mergeCell ref="K54:S54"/>
-    <mergeCell ref="L55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="K56:S56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="Q5:R7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="K2:S3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
+++ b/src/main/resources/jxls_templates/purchaseOrderDBatch.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF64972-7ECA-4B60-9358-9A0ABF2D7C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F85B5-07D6-4CFB-A8AB-D40FBCB4A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{1E1CEF87-C7C6-443D-9877-8E378512BF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$1:$K$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$I$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet!$A$2:$K$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$2:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +98,7 @@
     <author>李涛</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{42419B0B-0F35-40F6-A95F-37C407A59AAF}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{22BFFD4A-027F-412D-8749-062A33CC6540}">
       <text>
         <r>
           <rPr>
@@ -109,12 +109,56 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="S56")
-jx:each(items="rows2", var="page", lastCell="I14", multisheet="sheetNames2")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S56</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")
+jx:each(items="rows2", var="page", lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>S56</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>", multisheet="sheetNames2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{D35FD900-DB51-4D7C-A1E2-EAF8068B3E73}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{96EFEF16-40AE-49C3-AC5E-9CAB7C063922}">
       <text>
         <r>
           <rPr>
@@ -140,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{389BDC05-3413-4568-9B8F-8F2BAB6C25F8}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{1011C6CF-7763-4D26-82F5-C1AFEFF06584}">
       <text>
         <r>
           <rPr>
@@ -155,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{6E3A3E21-919D-46C6-AD8A-BA1EFF5F692A}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D71B6B9F-05C0-4977-8F5E-2D4379C3CF9D}">
       <text>
         <r>
           <rPr>
@@ -175,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>订货清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +318,10 @@
   </si>
   <si>
     <t>${row.cOrderNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +396,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -358,23 +415,6 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -573,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,33 +629,58 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,32 +690,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,33 +724,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -706,25 +735,64 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1114,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="A1:K4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1065,33 +1133,33 @@
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1176,252 +1244,1250 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="301" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="272" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6512DF2-7B73-4AE5-BEE5-6E187B913E01}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503E48E3-FEAC-49B3-A429-6DFB3673AC76}">
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="1.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="0.21875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="0.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13" style="3" customWidth="1"/>
+    <col min="22" max="22" width="2.44140625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:28" ht="1.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+    </row>
+    <row r="2" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:28" ht="7.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:28" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="8.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="AB11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="AB12" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="1:28" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" ht="2.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="1.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" ht="11.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="5"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+    </row>
+    <row r="41" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+    </row>
+    <row r="42" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="1:19" ht="1.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+    </row>
+    <row r="45" spans="1:19" ht="11.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="5"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+    </row>
+    <row r="54" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+    </row>
+    <row r="55" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+    </row>
+    <row r="56" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="76">
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A2:I3"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="287" fitToWidth="120" fitToHeight="80" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageSetup paperSize="256" fitToWidth="100" fitToHeight="75" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>